--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D208DF38-5A92-403E-9EDC-0D955B0901ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FB468-7A2C-45FC-9A6F-CC50B9609FAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
   <si>
     <t>TestwyLek23454</t>
   </si>
@@ -29,6 +29,42 @@
   </si>
   <si>
     <t>TestwyLek11</t>
+  </si>
+  <si>
+    <t>Anestetyk</t>
+  </si>
+  <si>
+    <t>Analgetyk</t>
+  </si>
+  <si>
+    <t>Przeciwalergiczny</t>
+  </si>
+  <si>
+    <t>Przeciwbolowy</t>
+  </si>
+  <si>
+    <t>Odtrutka</t>
+  </si>
+  <si>
+    <t>Przeciwpadaczkowy</t>
+  </si>
+  <si>
+    <t>Na zakazenia</t>
+  </si>
+  <si>
+    <t>Dermatologiczny</t>
+  </si>
+  <si>
+    <t>Antyseptyk</t>
+  </si>
+  <si>
+    <t>Hromony</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -347,656 +383,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
         <f ca="1">ROUND(RAND()*100,2)</f>
-        <v>31.65</v>
-      </c>
-      <c r="D1">
+        <v>19.98</v>
+      </c>
+      <c r="E1">
         <f ca="1">INT(RAND()*200)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C40" ca="1" si="0">ROUND(RAND()*100,2)</f>
-        <v>29.2</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D40" ca="1" si="1">INT(RAND()*200)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D40" ca="1" si="0">ROUND(RAND()*100,2)</f>
+        <v>63.84</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E40" ca="1" si="1">INT(RAND()*200)</f>
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45.41</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>60.39</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>95.22</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>92.36</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.97</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.72</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>66.680000000000007</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.29</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.209999999999994</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.31</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>85.44</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>46.72</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>74.12</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>98.13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>95.41</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>37.42</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.75</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.7</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>99.47</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.55</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>84.09</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.06</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.54</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>40.32</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.47</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.02</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>46.66</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.989999999999995</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.090000000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>77.14</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>96.87</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.88</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.46</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>78.7</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.08</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>67.61</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.91</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.48</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.14</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.16</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.450000000000003</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>60.66</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.8</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.03</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.12</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.83</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.130000000000003</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.77</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.84</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>87.19</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.170000000000002</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.95</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.85</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.549999999999997</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.43</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.909999999999997</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.17</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="1"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44.81</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>50.05</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>60.71</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>50.96</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.03</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="1"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.35</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>36.020000000000003</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.24</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.15</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>41.58</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>93.7</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="1"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>62.87</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>54.31</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>98.11</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FB468-7A2C-45FC-9A6F-CC50B9609FAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C2E0B-BF71-4C67-8B10-6042B0AEFDC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="16">
   <si>
     <t>TestwyLek23454</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Wskazaniem do stosowania preparatu jest łagodzenie objawów zapalenia błony śluzowej nosa, takich jak: obrzęk błony śluzowej nosa i zatok przynosowych, wyciek wydzieliny z nosa, uczucie zatkanego nosa i kichanie występujących w przeziębieniu i grypy. Lek można też stosować doraźnie w przypadku alergicznego zapalenia błony śluzowej nosa i w naczynioruchowym obrzęku błony śluzowej nosa.</t>
   </si>
 </sst>
 </file>
@@ -383,20 +386,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -406,19 +409,22 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1">
         <f ca="1">ROUND(RAND()*100,2)</f>
-        <v>19.98</v>
-      </c>
-      <c r="E1">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F1">
         <f ca="1">INT(RAND()*200)</f>
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -428,19 +434,22 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D40" ca="1" si="0">ROUND(RAND()*100,2)</f>
-        <v>63.84</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E40" ca="1" si="1">INT(RAND()*200)</f>
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E40" ca="1" si="0">ROUND(RAND()*100,2)</f>
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F40" ca="1" si="1">INT(RAND()*200)</f>
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -450,19 +459,22 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.39</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.59</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -472,19 +484,22 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>92.36</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.66</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -494,19 +509,22 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.72</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -516,19 +534,22 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>197</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>77.17</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -538,19 +559,22 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.29</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>71.28</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -560,19 +584,22 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>89.31</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.18</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -582,19 +609,22 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>46.72</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.92</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -604,19 +634,22 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.13</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>186</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>54.4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -626,19 +659,22 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.6</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.58</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -648,19 +684,22 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>97.75</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.35</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -670,19 +709,22 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>99.47</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>99.32</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -692,19 +734,22 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>84.09</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.55</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -714,19 +759,22 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.54</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -736,19 +784,22 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.47</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>167</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.369999999999997</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -758,19 +809,22 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>46.66</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.08</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -780,19 +834,22 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.090000000000003</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.57</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -802,19 +859,22 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>77.14</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>49.61</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -824,19 +884,22 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.88</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.69</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -846,19 +909,22 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>78.7</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.74</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -868,19 +934,22 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.61</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.45</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -890,19 +959,22 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.48</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>52.1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -912,19 +984,22 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.16</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>55.92</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -934,19 +1009,22 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.66</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>87.23</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -956,19 +1034,22 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>37.03</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.96</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -978,19 +1059,22 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.83</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.22</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1000,19 +1084,22 @@
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>89.77</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.61</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1022,19 +1109,22 @@
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>87.19</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.21</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1044,19 +1134,22 @@
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.95</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>86.96</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1066,19 +1159,22 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.549999999999997</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>91.15</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1088,19 +1184,22 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.909999999999997</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>41.12</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1110,19 +1209,22 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.81</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.6</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1132,19 +1234,22 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.71</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>78.7</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1154,19 +1259,22 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.56</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1176,19 +1284,22 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.35</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>73.48</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1198,19 +1309,22 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.24</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.28</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1220,19 +1334,22 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.58</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45.45</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1242,19 +1359,22 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>62.87</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>66.81</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1264,15 +1384,18 @@
       <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.11</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>55.07</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="G40" t="s">
         <v>14</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C2E0B-BF71-4C67-8B10-6042B0AEFDC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28989DDF-9723-471E-945F-7632198E76A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="45">
   <si>
     <t>TestwyLek23454</t>
   </si>
@@ -68,6 +68,93 @@
   </si>
   <si>
     <t>Wskazaniem do stosowania preparatu jest łagodzenie objawów zapalenia błony śluzowej nosa, takich jak: obrzęk błony śluzowej nosa i zatok przynosowych, wyciek wydzieliny z nosa, uczucie zatkanego nosa i kichanie występujących w przeziębieniu i grypy. Lek można też stosować doraźnie w przypadku alergicznego zapalenia błony śluzowej nosa i w naczynioruchowym obrzęku błony śluzowej nosa.</t>
+  </si>
+  <si>
+    <t>Ahist</t>
+  </si>
+  <si>
+    <t>Antyalergiczny</t>
+  </si>
+  <si>
+    <t>Aleric</t>
+  </si>
+  <si>
+    <t>Cezara</t>
+  </si>
+  <si>
+    <t>Flonidan</t>
+  </si>
+  <si>
+    <t>Goldesin</t>
+  </si>
+  <si>
+    <t>Lirra</t>
+  </si>
+  <si>
+    <t>Aglan</t>
+  </si>
+  <si>
+    <t>Crohnax</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Ketonal</t>
+  </si>
+  <si>
+    <t>Movalis</t>
+  </si>
+  <si>
+    <t>Nabuton</t>
+  </si>
+  <si>
+    <t>Mukowiscydoza</t>
+  </si>
+  <si>
+    <t>Pulmozyme</t>
+  </si>
+  <si>
+    <t>Niepłodnosc</t>
+  </si>
+  <si>
+    <t>Bemfola</t>
+  </si>
+  <si>
+    <t>Padaczka</t>
+  </si>
+  <si>
+    <t>Lamilept</t>
+  </si>
+  <si>
+    <t>Schizofrenia</t>
+  </si>
+  <si>
+    <t>Aripiprazole</t>
+  </si>
+  <si>
+    <t>Nadcisnienie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accupro </t>
+  </si>
+  <si>
+    <t>Bespres</t>
+  </si>
+  <si>
+    <t>Candepres</t>
+  </si>
+  <si>
+    <t>Abeacil</t>
+  </si>
+  <si>
+    <t>Ipuzumax</t>
+  </si>
+  <si>
+    <t>Isoderm</t>
+  </si>
+  <si>
+    <t>Hormony</t>
   </si>
 </sst>
 </file>
@@ -386,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,21 +491,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="1">
         <f ca="1">ROUND(RAND()*100,2)</f>
-        <v>39.950000000000003</v>
+        <v>61.54</v>
       </c>
       <c r="F1">
         <f ca="1">INT(RAND()*200)</f>
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -429,21 +516,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E40" ca="1" si="0">ROUND(RAND()*100,2)</f>
-        <v>16.510000000000002</v>
+        <f t="shared" ref="E2:E42" ca="1" si="0">ROUND(RAND()*100,2)</f>
+        <v>39.81</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F40" ca="1" si="1">INT(RAND()*200)</f>
-        <v>161</v>
+        <f t="shared" ref="F2:F42" ca="1" si="1">INT(RAND()*200)</f>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -454,21 +541,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.59</v>
+        <v>84.78</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -479,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -489,14 +576,14 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43.66</v>
+        <v>5.3</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -504,24 +591,24 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.12</v>
+        <f ca="1">ROUND(RAND()*100,2)</f>
+        <v>67.39</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <f ca="1">INT(RAND()*200)</f>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -529,24 +616,24 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1">ROUND(RAND()*100,2)</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F6">
+        <f ca="1">INT(RAND()*200)</f>
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>77.17</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -554,21 +641,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71.28</v>
+        <v>77.73</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -579,21 +666,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.18</v>
+        <v>70.62</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -604,24 +691,24 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.92</v>
+        <f ca="1">ROUND(RAND()*100,2)</f>
+        <v>95.61</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <f ca="1">INT(RAND()*200)</f>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,24 +716,24 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>54.4</v>
+        <f ca="1">ROUND(RAND()*100,2)</f>
+        <v>61.82</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f ca="1">INT(RAND()*200)</f>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -654,21 +741,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.58</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -679,21 +766,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.35</v>
+        <v>55.87</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -704,21 +791,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99.32</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -729,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -739,11 +826,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.55</v>
+        <v>49.43</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -754,21 +841,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39.9</v>
+        <v>28.31</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -779,21 +866,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.369999999999997</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -804,21 +891,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.08</v>
+        <v>4.7</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -829,21 +916,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.57</v>
+        <v>42.57</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -854,21 +941,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49.61</v>
+        <v>0.4</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -879,21 +966,21 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.69</v>
+        <v>98.93</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -904,21 +991,21 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.74</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -929,21 +1016,21 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.45</v>
+        <f ca="1">ROUND(RAND()*100,2)</f>
+        <v>70.209999999999994</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <f ca="1">INT(RAND()*200)</f>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -954,24 +1041,24 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.1</v>
+        <f ca="1">ROUND(RAND()*100,2)</f>
+        <v>81.22</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <f ca="1">INT(RAND()*200)</f>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -979,21 +1066,21 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.92</v>
+        <v>78.27</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1007,18 +1094,18 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>87.23</v>
+        <v>0.95</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1032,18 +1119,18 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.96</v>
+        <v>22.55</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1064,11 +1151,11 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.22</v>
+        <v>53.07</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1089,11 +1176,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.61</v>
+        <v>67.11</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1114,11 +1201,11 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.21</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1132,18 +1219,18 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>86.96</v>
+        <v>86.18</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -1164,11 +1251,11 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91.15</v>
+        <v>90.75</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -1189,11 +1276,11 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.12</v>
+        <v>55.73</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -1214,11 +1301,11 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89.6</v>
+        <v>31.6</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1239,11 +1326,11 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78.7</v>
+        <v>43.13</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -1264,11 +1351,11 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.56</v>
+        <v>18.43</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -1289,11 +1376,11 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73.48</v>
+        <v>7.22</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -1314,11 +1401,11 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39.28</v>
+        <v>45.5</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1339,11 +1426,11 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.45</v>
+        <v>43.52</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -1364,11 +1451,11 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.81</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -1389,15 +1476,21 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.07</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
